--- a/testdata/coppel-data.xlsx
+++ b/testdata/coppel-data.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,33 +15,42 @@
     <sheet name="MCP-INT-06" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Segoe UI"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,26 +70,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -436,352 +468,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="61.28515625" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" min="4" max="4"/>
-    <col width="12.42578125" customWidth="1" min="5" max="5"/>
-    <col width="17.85546875" customWidth="1" min="8" max="8"/>
-    <col width="14.28515625" customWidth="1" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="61.29" customWidth="1" style="4" min="1" max="1"/>
+    <col width="12" customWidth="1" style="4" min="3" max="3"/>
+    <col width="14.57" customWidth="1" style="4" min="4" max="4"/>
+    <col width="12.43" customWidth="1" style="4" min="5" max="5"/>
+    <col width="17.85" customWidth="1" style="4" min="8" max="8"/>
+    <col width="14.28" customWidth="1" style="4" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="4" min="13" max="13"/>
+    <col width="12" customWidth="1" style="4" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>MCP-INT-01 - Registrar cuenta con correo electrónico</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Apellido</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Correo</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Contrasenia</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>genero</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>MCP-INT-02 - Registrar cuenta con celular</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Apellido</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>celular</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Contrasenia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>genero</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="5">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>MCP-INT-03 - Ligar cuenta con crédito Coppel</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>usuario</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>contrasenia</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>numeroCliente</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>dia</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>mes</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>anio</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="5">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>MCP-INT-04 - Ligar teléfono a la cuenta</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>correo</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>contrasenia</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>celular</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="5">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>MCP-INT-05 - Registro en newsletter</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Correo</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="5">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>MCP-INT-06 - Envío de correo transaccional</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>correo</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>apellido</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>telefono</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>calle</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>numero exterior</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>codigo postal</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>colonia</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>estado</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>ciudad</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>entre calles</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>referencias</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.5703125" customWidth="1" min="1" max="1"/>
-    <col width="12.28515625" customWidth="1" min="2" max="2"/>
-    <col width="13.28515625" customWidth="1" min="3" max="3"/>
-    <col width="39.42578125" customWidth="1" min="4" max="4"/>
-    <col width="10.42578125" customWidth="1" min="6" max="6"/>
-    <col width="10.28515625" customWidth="1" min="7" max="7"/>
-    <col width="22.85546875" customWidth="1" min="8" max="8"/>
-    <col width="13.140625" customWidth="1" min="9" max="9"/>
+    <col width="11.57" customWidth="1" style="4" min="1" max="1"/>
+    <col width="12.28" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.28" customWidth="1" style="4" min="3" max="3"/>
+    <col width="39.43" customWidth="1" style="4" min="4" max="4"/>
+    <col width="10.43" customWidth="1" style="4" min="6" max="6"/>
+    <col width="10.28" customWidth="1" style="4" min="7" max="7"/>
+    <col width="22.85" customWidth="1" style="4" min="8" max="8"/>
+    <col width="13.14" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>_nombre</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>_apellido</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>_genero</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>_correo</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>_contrasena</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" s="5">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>MCP-INT-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Hassil</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Piña</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>hassilpm94@gmail.com</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>HolaMundo</t>
         </is>
@@ -789,80 +822,173 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" display="hassilpm94@gmail.com" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.36" customWidth="1" style="4" min="1" max="1"/>
+    <col width="15.43" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.56" customWidth="1" style="4" min="3" max="3"/>
+    <col width="25.24" customWidth="1" style="4" min="4" max="4"/>
+    <col width="24.47" customWidth="1" style="4" min="5" max="5"/>
+    <col width="22.27" customWidth="1" style="4" min="6" max="6"/>
+    <col width="13.34" customWidth="1" style="4" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="4" min="1022" max="1024"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.8" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>_iteration</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>_shet_data</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>_navegador</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>_url</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>_correo_celular</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>_correo_newsletter</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>_contrasena</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.8" customHeight="1" s="5">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>MCP-INT-05</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>https://www.coppel.com/</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>testcoppel07@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>testcoppel07@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>margemargy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/testdata/coppel-data.xlsx
+++ b/testdata/coppel-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -678,10 +678,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -796,6 +796,54 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MCP-INT-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.coppel.com/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Julian</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Medina</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6672108838</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HolaMundo</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -816,7 +864,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/testdata/coppel-data.xlsx
+++ b/testdata/coppel-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,13 +68,17 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +682,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -833,8 +837,10 @@
           <t>Masculino</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>6672108838</v>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>hrpinam@gmail.com</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -844,12 +850,20 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -862,10 +876,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -980,6 +994,54 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MCP-INT-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.coppel.com/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6672529402</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>contra123contra</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>

--- a/testdata/coppel-data.xlsx
+++ b/testdata/coppel-data.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="MCP-INT-01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="MCP-INT-02" sheetId="2" state="visible" r:id="rId2"/>
@@ -11,7 +14,7 @@
     <sheet name="MCP-INT-06" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,9 +62,12 @@
     <font>
       <name val="Arial"/>
       <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color rgb="FF0000FF"/>
+      <sz val="10"/>
       <u val="single"/>
     </font>
   </fonts>
@@ -70,52 +76,41 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -188,7 +183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -378,6 +373,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -393,155 +390,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>_nombre</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>_apellido</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>_genero</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>_usuario</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>_contrasena</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>_recibe_oferta</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-01</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Hassil</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>test1@algo.com</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>HolaMundo</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-01</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>test2@algo.com</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Contra1234</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -570,151 +567,151 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>_nombre</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>_apellido</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>_genero</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>_usuario</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>_contrasena</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>_recibe_oferta</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-02</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Alex</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="3" t="n">
         <v>6672108838</v>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>123tesT</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-02</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Rayo</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Demenino</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="3" t="n">
         <v>6672529402</v>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>123Test</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -741,101 +738,101 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>_usuario</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>_password</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>_numero_cliente</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>_dia</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>_mes</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>_ano</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="n">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-03</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>yeralithlikee@hotmail.com</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Yeralith1616.</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="3" t="n">
         <v>657849671</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="3" t="n">
         <v>1994</v>
       </c>
     </row>
@@ -859,75 +856,75 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>_usuario</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>_password</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>_numero_celular</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-04</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>yeralithlikee@hotmail.com</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Yeralith1616.</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="3" t="n">
         <v>5567890342</v>
       </c>
     </row>
@@ -951,55 +948,55 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>_iteration</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>_correo_newsletter</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>MCP-INT-05</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>https://www.coppel.com/</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>jbdku3kbdj3@gmail.com</t>
         </is>
@@ -1021,170 +1018,170 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>_iteracion</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>_shet_data</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>_navegador</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>_url</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>_articulo</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>_correo</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>_nombre</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>_apellidos</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>_telefono</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>_calle</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>_numeroext</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>_cp</t>
         </is>
       </c>
-      <c r="M1" s="10" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>_colonia</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>_estado</t>
         </is>
       </c>
-      <c r="O1" s="10" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>_ciudad</t>
         </is>
       </c>
-      <c r="P1" s="10" t="inlineStr">
+      <c r="P1" s="8" t="inlineStr">
         <is>
           <t>_entrecalles</t>
         </is>
       </c>
-      <c r="Q1" s="10" t="inlineStr">
+      <c r="Q1" s="8" t="inlineStr">
         <is>
           <t>_referencias</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>MCP-INT-03</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>https://www.coppel.com</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>Cartera Negra marca Perry Ellis para Mujer</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>auroratobon022@gmail.com</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>Valentina</t>
         </is>
       </c>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>Soto</t>
         </is>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="8" t="n">
         <v>5561723172</v>
       </c>
-      <c r="J2" s="10" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Estrella</t>
         </is>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="8" t="n">
         <v>54945</v>
       </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>Nueva Tultitlan</t>
-        </is>
-      </c>
-      <c r="N2" s="10" t="inlineStr">
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>NUEVA TULTITLAN</t>
+        </is>
+      </c>
+      <c r="N2" s="8" t="inlineStr">
         <is>
           <t>ESTADO DE MEXICO</t>
         </is>
       </c>
-      <c r="O2" s="10" t="inlineStr">
+      <c r="O2" s="8" t="inlineStr">
         <is>
           <t>TULTITLAN DE MARIANO ESCOBEDO</t>
         </is>
       </c>
-      <c r="P2" s="10" t="inlineStr">
+      <c r="P2" s="8" t="inlineStr">
         <is>
           <t>Andromeda Estrella</t>
         </is>
       </c>
-      <c r="Q2" s="10" t="inlineStr">
+      <c r="Q2" s="8" t="inlineStr">
         <is>
           <t>Gasera</t>
         </is>
